--- a/buscas.xlsx
+++ b/buscas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Python\Downloads\Projeto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\Projetos Hashtag\Projeto2 - Automaçao Web\Projeto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42EEB8-E014-4F6F-8E3A-37E95301BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD1410C-C4D1-4B61-A2D5-1E5C0C66F14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{CD3F9E8B-8E7C-43BA-8194-A874F6873E6D}"/>
+    <workbookView xWindow="5415" yWindow="1650" windowWidth="10230" windowHeight="8955" xr2:uid="{CD3F9E8B-8E7C-43BA-8194-A874F6873E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nome</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>iphone 12 64gb</t>
+  </si>
+  <si>
+    <t>vectra</t>
+  </si>
+  <si>
+    <t>siena</t>
+  </si>
+  <si>
+    <t>celta</t>
   </si>
 </sst>
 </file>
@@ -418,21 +427,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220DEAF8-BE44-4105-B361-44B3C8893CB3}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.578125" customWidth="1"/>
-    <col min="2" max="2" width="17.68359375" customWidth="1"/>
-    <col min="3" max="3" width="17.41796875" customWidth="1"/>
-    <col min="4" max="4" width="19.26171875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -460,7 +469,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -472,6 +481,21 @@
       </c>
       <c r="D3">
         <v>4500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/buscas.xlsx
+++ b/buscas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\Projetos Hashtag\Projeto2 - Automaçao Web\Projeto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD1410C-C4D1-4B61-A2D5-1E5C0C66F14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B28CAA4-C057-4AEB-A343-A6EA26D6E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="1650" windowWidth="10230" windowHeight="8955" xr2:uid="{CD3F9E8B-8E7C-43BA-8194-A874F6873E6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD3F9E8B-8E7C-43BA-8194-A874F6873E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Nome</t>
   </si>
@@ -54,19 +54,19 @@
     <t>Preço máximo</t>
   </si>
   <si>
-    <t>rtx 3060</t>
-  </si>
-  <si>
-    <t>iphone 12 64gb</t>
-  </si>
-  <si>
-    <t>vectra</t>
-  </si>
-  <si>
-    <t>siena</t>
-  </si>
-  <si>
-    <t>celta</t>
+    <t>soe</t>
+  </si>
+  <si>
+    <t>iphone/12/64gb</t>
+  </si>
+  <si>
+    <t>placa/de/video/rtx/3060</t>
+  </si>
+  <si>
+    <t>redmi/note/12/128gb</t>
+  </si>
+  <si>
+    <t>samsung/s23/256gb</t>
   </si>
 </sst>
 </file>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220DEAF8-BE44-4105-B361-44B3C8893CB3}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -485,17 +485,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>700</v>
+      </c>
+      <c r="D4">
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
         <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2300</v>
+      </c>
+      <c r="D5">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>

--- a/buscas.xlsx
+++ b/buscas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\Projetos Hashtag\Projeto2 - Automaçao Web\Projeto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B28CAA4-C057-4AEB-A343-A6EA26D6E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB4C806-EEC2-4580-931F-9E46171F9E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD3F9E8B-8E7C-43BA-8194-A874F6873E6D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nome</t>
   </si>
@@ -42,31 +42,16 @@
     <t>Preço mínimo</t>
   </si>
   <si>
-    <t>Termos banidos</t>
-  </si>
-  <si>
-    <t>mini watch</t>
-  </si>
-  <si>
-    <t>zota galax</t>
-  </si>
-  <si>
     <t>Preço máximo</t>
   </si>
   <si>
-    <t>soe</t>
-  </si>
-  <si>
-    <t>iphone/12/64gb</t>
-  </si>
-  <si>
-    <t>placa/de/video/rtx/3060</t>
-  </si>
-  <si>
-    <t>redmi/note/12/128gb</t>
-  </si>
-  <si>
-    <t>samsung/s23/256gb</t>
+    <t>jbl/boombox/3</t>
+  </si>
+  <si>
+    <t>mouse/gamer</t>
+  </si>
+  <si>
+    <t>iphone/15</t>
   </si>
 </sst>
 </file>
@@ -427,88 +412,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220DEAF8-BE44-4105-B361-44B3C8893CB3}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>3000</v>
-      </c>
-      <c r="D2">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4000</v>
-      </c>
-      <c r="D3">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>700</v>
-      </c>
-      <c r="D4">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>2300</v>
-      </c>
-      <c r="D5">
-        <v>7000</v>
       </c>
     </row>
   </sheetData>

--- a/buscas.xlsx
+++ b/buscas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\Projetos Hashtag\Projeto2 - Automaçao Web\Projeto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB4C806-EEC2-4580-931F-9E46171F9E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCFA2F7-DB3F-4446-9AA6-77D8065CCFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD3F9E8B-8E7C-43BA-8194-A874F6873E6D}"/>
   </bookViews>
@@ -39,12 +39,6 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Preço mínimo</t>
-  </si>
-  <si>
-    <t>Preço máximo</t>
-  </si>
-  <si>
     <t>jbl/boombox/3</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>iphone/15</t>
+  </si>
+  <si>
+    <t>stanley/473ml</t>
+  </si>
+  <si>
+    <t>ps5/825gb</t>
   </si>
 </sst>
 </file>
@@ -412,42 +412,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220DEAF8-BE44-4105-B361-44B3C8893CB3}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
